--- a/ConceptMap-R5-InventoryReport-elements-for-R4.xlsx
+++ b/ConceptMap-R5-InventoryReport-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.1672758-06:00</t>
+    <t>2026-02-09T22:05:43.9648711-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,9 +237,6 @@
     <t>inventoryListing</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing:location</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:location</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>itemStatus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing:itemStatus</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:itemStatus</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
     <t>countingDateTime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing:countingDateTime</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:countingDateTime</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>item</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing:item</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item</t>
   </si>
   <si>
@@ -297,9 +282,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing:item:category</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:category</t>
   </si>
   <si>
@@ -309,16 +291,10 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing:item:quantity</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:quantity</t>
   </si>
   <si>
     <t>InventoryReport.inventoryListing.item.item</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:inventoryListing:item:item</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:item</t>
@@ -587,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,211 +798,107 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-InventoryReport-elements-for-R4.xlsx
+++ b/ConceptMap-R5-InventoryReport-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.9648711-06:00</t>
+    <t>2026-02-17T14:42:27.3351699-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,7 +174,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.status</t>
   </si>
   <si>
     <t>InventoryReport.countType</t>
@@ -183,7 +183,7 @@
     <t>countType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:countType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.countType</t>
   </si>
   <si>
     <t>InventoryReport.operationType</t>
@@ -192,7 +192,7 @@
     <t>operationType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:operationType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.operationType</t>
   </si>
   <si>
     <t>InventoryReport.operationTypeReason</t>
@@ -201,7 +201,7 @@
     <t>operationTypeReason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:operationTypeReason</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.operationTypeReason</t>
   </si>
   <si>
     <t>InventoryReport.reportedDateTime</t>
@@ -210,7 +210,7 @@
     <t>reportedDateTime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:reportedDateTime</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.reportedDateTime</t>
   </si>
   <si>
     <t>InventoryReport.reporter</t>
@@ -219,7 +219,7 @@
     <t>reporter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:reporter</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.reporter</t>
   </si>
   <si>
     <t>InventoryReport.reportingPeriod</t>
@@ -228,7 +228,7 @@
     <t>reportingPeriod</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:reportingPeriod</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.reportingPeriod</t>
   </si>
   <si>
     <t>InventoryReport.inventoryListing</t>
@@ -246,7 +246,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:location</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.location</t>
   </si>
   <si>
     <t>InventoryReport.inventoryListing.itemStatus</t>
@@ -255,7 +255,7 @@
     <t>itemStatus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:itemStatus</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.itemStatus</t>
   </si>
   <si>
     <t>InventoryReport.inventoryListing.countingDateTime</t>
@@ -264,7 +264,7 @@
     <t>countingDateTime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:countingDateTime</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.countingDateTime</t>
   </si>
   <si>
     <t>InventoryReport.inventoryListing.item</t>
@@ -282,7 +282,7 @@
     <t>category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:category</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item.category</t>
   </si>
   <si>
     <t>InventoryReport.inventoryListing.item.quantity</t>
@@ -291,13 +291,13 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:quantity</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item.quantity</t>
   </si>
   <si>
     <t>InventoryReport.inventoryListing.item.item</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:item</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item.item</t>
   </si>
   <si>
     <t>InventoryReport.note</t>
@@ -306,7 +306,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:note</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport:http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.note</t>
   </si>
 </sst>
 </file>
